--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\long\work_space\ctc_extract_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D0B4B-61C1-467C-83FA-B0169A83D76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEF1D1-05AD-49B1-AF0D-225F2E1D01E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>30/10</t>
   </si>
+  <si>
+    <t>values</t>
+  </si>
 </sst>
 </file>
 
@@ -222,10 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -233,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="104" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -553,93 +556,93 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -727,10 +730,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6">
@@ -819,8 +822,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7">
@@ -909,8 +912,8 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C8">
@@ -999,8 +1002,8 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9">
@@ -1086,8 +1089,8 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C10">
@@ -1173,8 +1176,8 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C11">
@@ -1260,8 +1263,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C12">
@@ -1347,8 +1350,8 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13">
@@ -1434,8 +1437,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14">
@@ -1524,8 +1527,8 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15">
@@ -1614,10 +1617,10 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C16">
@@ -1703,8 +1706,8 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C17">
@@ -1790,8 +1793,8 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18">
@@ -1877,8 +1880,8 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19">
@@ -1964,8 +1967,8 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C20">
@@ -2051,8 +2054,8 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C21">
@@ -2141,8 +2144,8 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C22">
@@ -2231,8 +2234,8 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C23">
@@ -2321,8 +2324,8 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24">
@@ -2411,8 +2414,8 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25">
@@ -2501,10 +2504,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26">
@@ -2593,8 +2596,8 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27">
@@ -2683,8 +2686,8 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C28">
@@ -2773,8 +2776,8 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C29">
@@ -2863,8 +2866,8 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30">
@@ -2953,8 +2956,8 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C31">
@@ -3028,8 +3031,8 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C32">
@@ -3118,8 +3121,8 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C33">
@@ -3208,8 +3211,8 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C34">
@@ -3298,8 +3301,8 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C35">
@@ -3388,10 +3391,10 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C36">
@@ -3480,8 +3483,8 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -3570,8 +3573,8 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38">
@@ -3660,8 +3663,8 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C39">
@@ -3750,8 +3753,8 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C40">
@@ -3840,8 +3843,8 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C41">
@@ -3930,8 +3933,8 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C42">
@@ -4020,8 +4023,8 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C43">
@@ -4110,8 +4113,8 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C44">
@@ -4200,8 +4203,8 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C45">
@@ -4290,10 +4293,10 @@
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C46">
@@ -4382,8 +4385,8 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C47">
@@ -4472,8 +4475,8 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C48">
@@ -4562,8 +4565,8 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C49">
@@ -4652,8 +4655,8 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C50">
@@ -4742,8 +4745,8 @@
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C51">
@@ -4832,8 +4835,8 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C52">
@@ -4922,8 +4925,8 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C53">
@@ -5012,8 +5015,8 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C54">
@@ -5102,8 +5105,8 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C55">
@@ -5217,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5766067-2AE6-47AB-B7B8-BE2CEE77A1E2}">
   <dimension ref="A2:AD55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5228,95 +5231,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -5406,41 +5409,97 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5532,7 +5591,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5622,7 +5681,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -5712,7 +5771,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -5799,7 +5858,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -5886,7 +5945,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -5973,7 +6032,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -6060,7 +6119,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -6147,7 +6206,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
@@ -6237,7 +6296,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -6327,7 +6386,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6416,7 +6475,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -6503,7 +6562,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -6590,7 +6649,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
@@ -6677,7 +6736,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -6764,7 +6823,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -6854,7 +6913,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -6944,7 +7003,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -7034,7 +7093,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -7124,7 +7183,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
@@ -7214,7 +7273,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -7306,7 +7365,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
@@ -7396,7 +7455,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -7486,7 +7545,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -7576,7 +7635,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -7666,7 +7725,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
@@ -7741,7 +7800,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -7831,7 +7890,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
@@ -7921,7 +7980,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
@@ -8011,7 +8070,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
@@ -8101,7 +8160,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -8193,7 +8252,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -8283,7 +8342,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
@@ -8373,7 +8432,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
@@ -8463,7 +8522,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
@@ -8553,7 +8612,7 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
@@ -8643,7 +8702,7 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
@@ -8733,7 +8792,7 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
@@ -8823,7 +8882,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
@@ -8913,7 +8972,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
@@ -9003,7 +9062,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -9095,7 +9154,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
@@ -9185,7 +9244,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
@@ -9275,7 +9334,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
@@ -9365,7 +9424,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
@@ -9455,7 +9514,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
@@ -9545,7 +9604,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
@@ -9635,7 +9694,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
@@ -9725,7 +9784,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
@@ -9815,7 +9874,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="1" t="s">
         <v>32</v>
       </c>
@@ -9906,11 +9965,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A46:A55"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="O2:AD2"/>
@@ -9921,7 +9975,13 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A46:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>